--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Cntn2-Nrcam.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="80" uniqueCount="27">
   <si>
     <t>Sending cluster</t>
   </si>
@@ -79,6 +79,12 @@
     <t>FAPs</t>
   </si>
   <si>
+    <t>Inflammatory-Mac</t>
+  </si>
+  <si>
+    <t>MuSCs</t>
+  </si>
+  <si>
     <t>Cntn2</t>
   </si>
   <si>
@@ -86,12 +92,6 @@
   </si>
   <si>
     <t>ECs</t>
-  </si>
-  <si>
-    <t>Inflammatory-Mac</t>
-  </si>
-  <si>
-    <t>MuSCs</t>
   </si>
   <si>
     <t>Resolving-Mac</t>
@@ -452,7 +452,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:T6"/>
+  <dimension ref="A1:T16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -525,13 +525,13 @@
         <v>20</v>
       </c>
       <c r="B2" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C2" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>25</v>
       </c>
       <c r="E2">
         <v>1</v>
@@ -543,43 +543,43 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H2">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I2">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J2">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1719333333333334</v>
+        <v>0.04549066666666667</v>
       </c>
       <c r="N2">
-        <v>0.5158</v>
+        <v>0.136472</v>
       </c>
       <c r="O2">
-        <v>0.02704343764351097</v>
+        <v>0.02206207812774318</v>
       </c>
       <c r="P2">
-        <v>0.02704343764351097</v>
+        <v>0.02206207812774317</v>
       </c>
       <c r="Q2">
-        <v>0.02470120351111112</v>
+        <v>0.006535522771555557</v>
       </c>
       <c r="R2">
-        <v>0.2223108316</v>
+        <v>0.058819704944</v>
       </c>
       <c r="S2">
-        <v>0.02704343764351097</v>
+        <v>0.01224283240036613</v>
       </c>
       <c r="T2">
-        <v>0.02704343764351097</v>
+        <v>0.01224283240036612</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,10 +587,10 @@
         <v>20</v>
       </c>
       <c r="B3" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C3" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D3" t="s">
         <v>20</v>
@@ -605,13 +605,13 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H3">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I3">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J3">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,10 +626,10 @@
         <v>3.459258</v>
       </c>
       <c r="O3">
-        <v>0.1813691896390393</v>
+        <v>0.5592240185534072</v>
       </c>
       <c r="P3">
-        <v>0.1813691896390393</v>
+        <v>0.5592240185534072</v>
       </c>
       <c r="Q3">
         <v>0.165660790724</v>
@@ -638,10 +638,10 @@
         <v>1.490947116516</v>
       </c>
       <c r="S3">
-        <v>0.1813691896390393</v>
+        <v>0.3103282425964719</v>
       </c>
       <c r="T3">
-        <v>0.1813691896390393</v>
+        <v>0.3103282425964719</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,13 +649,13 @@
         <v>20</v>
       </c>
       <c r="B4" t="s">
+        <v>23</v>
+      </c>
+      <c r="C4" t="s">
+        <v>24</v>
+      </c>
+      <c r="D4" t="s">
         <v>21</v>
-      </c>
-      <c r="C4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D4" t="s">
-        <v>24</v>
       </c>
       <c r="E4">
         <v>1</v>
@@ -667,43 +667,43 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H4">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I4">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J4">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K4">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="L4">
-        <v>1</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M4">
-        <v>0.09542299999999999</v>
+        <v>0.0003523333333333334</v>
       </c>
       <c r="N4">
-        <v>0.286269</v>
+        <v>0.001057</v>
       </c>
       <c r="O4">
-        <v>0.01500910789214859</v>
+        <v>0.0001708747331395783</v>
       </c>
       <c r="P4">
-        <v>0.01500910789214859</v>
+        <v>0.0001708747331395783</v>
       </c>
       <c r="Q4">
-        <v>0.01370916794866667</v>
+        <v>5.061879044444445E-05</v>
       </c>
       <c r="R4">
-        <v>0.123382511538</v>
+        <v>0.000455569114</v>
       </c>
       <c r="S4">
-        <v>0.01500910789214859</v>
+        <v>9.482292226381231E-05</v>
       </c>
       <c r="T4">
-        <v>0.01500910789214859</v>
+        <v>9.48229222638123E-05</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -711,13 +711,13 @@
         <v>20</v>
       </c>
       <c r="B5" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C5" t="s">
+        <v>24</v>
+      </c>
+      <c r="D5" t="s">
         <v>22</v>
-      </c>
-      <c r="D5" t="s">
-        <v>25</v>
       </c>
       <c r="E5">
         <v>1</v>
@@ -729,13 +729,13 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H5">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I5">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J5">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>4.915345333333334</v>
+        <v>0.8315963333333333</v>
       </c>
       <c r="N5">
-        <v>14.746036</v>
+        <v>2.494789</v>
       </c>
       <c r="O5">
-        <v>0.7731359151899341</v>
+        <v>0.4033078567781981</v>
       </c>
       <c r="P5">
-        <v>0.773135915189934</v>
+        <v>0.4033078567781981</v>
       </c>
       <c r="Q5">
-        <v>0.7061745564524445</v>
+        <v>0.1194732276197778</v>
       </c>
       <c r="R5">
-        <v>6.355571008072001</v>
+        <v>1.075259048578</v>
       </c>
       <c r="S5">
-        <v>0.7731359151899341</v>
+        <v>0.2238062283932016</v>
       </c>
       <c r="T5">
-        <v>0.773135915189934</v>
+        <v>0.2238062283932015</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -773,10 +773,10 @@
         <v>20</v>
       </c>
       <c r="B6" t="s">
-        <v>21</v>
+        <v>23</v>
       </c>
       <c r="C6" t="s">
-        <v>22</v>
+        <v>24</v>
       </c>
       <c r="D6" t="s">
         <v>26</v>
@@ -791,43 +791,663 @@
         <v>0.1436673333333333</v>
       </c>
       <c r="H6">
-        <v>0.4310020000000001</v>
+        <v>0.431002</v>
       </c>
       <c r="I6">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="J6">
-        <v>1</v>
+        <v>0.5549265272962071</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="L6">
-        <v>0.3333333333333333</v>
+        <v>0.6666666666666666</v>
       </c>
       <c r="M6">
-        <v>0.02188533333333333</v>
+        <v>0.031414</v>
       </c>
       <c r="N6">
-        <v>0.06565599999999999</v>
+        <v>0.09424199999999999</v>
       </c>
       <c r="O6">
-        <v>0.003442349635367111</v>
+        <v>0.01523517180751196</v>
       </c>
       <c r="P6">
-        <v>0.003442349635367111</v>
+        <v>0.01523517180751196</v>
       </c>
       <c r="Q6">
-        <v>0.003144207479111111</v>
+        <v>0.004513165609333333</v>
       </c>
       <c r="R6">
-        <v>0.028297867312</v>
+        <v>0.04061849048399999</v>
       </c>
       <c r="S6">
-        <v>0.003442349635367111</v>
+        <v>0.008454400983903688</v>
       </c>
       <c r="T6">
-        <v>0.003442349635367111</v>
+        <v>0.008454400983903687</v>
+      </c>
+    </row>
+    <row r="7" spans="1:20">
+      <c r="A7" t="s">
+        <v>21</v>
+      </c>
+      <c r="B7" t="s">
+        <v>23</v>
+      </c>
+      <c r="C7" t="s">
+        <v>24</v>
+      </c>
+      <c r="D7" t="s">
+        <v>25</v>
+      </c>
+      <c r="E7">
+        <v>1</v>
+      </c>
+      <c r="F7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G7">
+        <v>0.011717</v>
+      </c>
+      <c r="H7">
+        <v>0.035151</v>
+      </c>
+      <c r="I7">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J7">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K7">
+        <v>1</v>
+      </c>
+      <c r="L7">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M7">
+        <v>0.04549066666666667</v>
+      </c>
+      <c r="N7">
+        <v>0.136472</v>
+      </c>
+      <c r="O7">
+        <v>0.02206207812774318</v>
+      </c>
+      <c r="P7">
+        <v>0.02206207812774317</v>
+      </c>
+      <c r="Q7">
+        <v>0.0005330141413333334</v>
+      </c>
+      <c r="R7">
+        <v>0.004797127272000001</v>
+      </c>
+      <c r="S7">
+        <v>0.000998482145570716</v>
+      </c>
+      <c r="T7">
+        <v>0.0009984821455707156</v>
+      </c>
+    </row>
+    <row r="8" spans="1:20">
+      <c r="A8" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" t="s">
+        <v>23</v>
+      </c>
+      <c r="C8" t="s">
+        <v>24</v>
+      </c>
+      <c r="D8" t="s">
+        <v>20</v>
+      </c>
+      <c r="E8">
+        <v>1</v>
+      </c>
+      <c r="F8">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G8">
+        <v>0.011717</v>
+      </c>
+      <c r="H8">
+        <v>0.035151</v>
+      </c>
+      <c r="I8">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J8">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K8">
+        <v>3</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>1.153086</v>
+      </c>
+      <c r="N8">
+        <v>3.459258</v>
+      </c>
+      <c r="O8">
+        <v>0.5592240185534072</v>
+      </c>
+      <c r="P8">
+        <v>0.5592240185534072</v>
+      </c>
+      <c r="Q8">
+        <v>0.013510708662</v>
+      </c>
+      <c r="R8">
+        <v>0.121596377958</v>
+      </c>
+      <c r="S8">
+        <v>0.02530927479572852</v>
+      </c>
+      <c r="T8">
+        <v>0.02530927479572852</v>
+      </c>
+    </row>
+    <row r="9" spans="1:20">
+      <c r="A9" t="s">
+        <v>21</v>
+      </c>
+      <c r="B9" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" t="s">
+        <v>21</v>
+      </c>
+      <c r="E9">
+        <v>1</v>
+      </c>
+      <c r="F9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G9">
+        <v>0.011717</v>
+      </c>
+      <c r="H9">
+        <v>0.035151</v>
+      </c>
+      <c r="I9">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J9">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M9">
+        <v>0.0003523333333333334</v>
+      </c>
+      <c r="N9">
+        <v>0.001057</v>
+      </c>
+      <c r="O9">
+        <v>0.0001708747331395783</v>
+      </c>
+      <c r="P9">
+        <v>0.0001708747331395783</v>
+      </c>
+      <c r="Q9">
+        <v>4.128289666666667E-06</v>
+      </c>
+      <c r="R9">
+        <v>3.7154607E-05</v>
+      </c>
+      <c r="S9">
+        <v>7.733422444664448E-06</v>
+      </c>
+      <c r="T9">
+        <v>7.733422444664447E-06</v>
+      </c>
+    </row>
+    <row r="10" spans="1:20">
+      <c r="A10" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" t="s">
+        <v>23</v>
+      </c>
+      <c r="C10" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" t="s">
+        <v>22</v>
+      </c>
+      <c r="E10">
+        <v>1</v>
+      </c>
+      <c r="F10">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G10">
+        <v>0.011717</v>
+      </c>
+      <c r="H10">
+        <v>0.035151</v>
+      </c>
+      <c r="I10">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J10">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K10">
+        <v>3</v>
+      </c>
+      <c r="L10">
+        <v>1</v>
+      </c>
+      <c r="M10">
+        <v>0.8315963333333333</v>
+      </c>
+      <c r="N10">
+        <v>2.494789</v>
+      </c>
+      <c r="O10">
+        <v>0.4033078567781981</v>
+      </c>
+      <c r="P10">
+        <v>0.4033078567781981</v>
+      </c>
+      <c r="Q10">
+        <v>0.009743814237666666</v>
+      </c>
+      <c r="R10">
+        <v>0.08769432813900001</v>
+      </c>
+      <c r="S10">
+        <v>0.01825284507786374</v>
+      </c>
+      <c r="T10">
+        <v>0.01825284507786374</v>
+      </c>
+    </row>
+    <row r="11" spans="1:20">
+      <c r="A11" t="s">
+        <v>21</v>
+      </c>
+      <c r="B11" t="s">
+        <v>23</v>
+      </c>
+      <c r="C11" t="s">
+        <v>24</v>
+      </c>
+      <c r="D11" t="s">
+        <v>26</v>
+      </c>
+      <c r="E11">
+        <v>1</v>
+      </c>
+      <c r="F11">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="G11">
+        <v>0.011717</v>
+      </c>
+      <c r="H11">
+        <v>0.035151</v>
+      </c>
+      <c r="I11">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="J11">
+        <v>0.04525784650880733</v>
+      </c>
+      <c r="K11">
+        <v>2</v>
+      </c>
+      <c r="L11">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M11">
+        <v>0.031414</v>
+      </c>
+      <c r="N11">
+        <v>0.09424199999999999</v>
+      </c>
+      <c r="O11">
+        <v>0.01523517180751196</v>
+      </c>
+      <c r="P11">
+        <v>0.01523517180751196</v>
+      </c>
+      <c r="Q11">
+        <v>0.000368077838</v>
+      </c>
+      <c r="R11">
+        <v>0.003312700542</v>
+      </c>
+      <c r="S11">
+        <v>0.0006895110671996848</v>
+      </c>
+      <c r="T11">
+        <v>0.0006895110671996848</v>
+      </c>
+    </row>
+    <row r="12" spans="1:20">
+      <c r="A12" t="s">
+        <v>22</v>
+      </c>
+      <c r="B12" t="s">
+        <v>23</v>
+      </c>
+      <c r="C12" t="s">
+        <v>24</v>
+      </c>
+      <c r="D12" t="s">
+        <v>25</v>
+      </c>
+      <c r="E12">
+        <v>2</v>
+      </c>
+      <c r="F12">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G12">
+        <v>0.10351</v>
+      </c>
+      <c r="H12">
+        <v>0.31053</v>
+      </c>
+      <c r="I12">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J12">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K12">
+        <v>1</v>
+      </c>
+      <c r="L12">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M12">
+        <v>0.04549066666666667</v>
+      </c>
+      <c r="N12">
+        <v>0.136472</v>
+      </c>
+      <c r="O12">
+        <v>0.02206207812774318</v>
+      </c>
+      <c r="P12">
+        <v>0.02206207812774317</v>
+      </c>
+      <c r="Q12">
+        <v>0.004708738906666667</v>
+      </c>
+      <c r="R12">
+        <v>0.04237865016</v>
+      </c>
+      <c r="S12">
+        <v>0.008820763581806333</v>
+      </c>
+      <c r="T12">
+        <v>0.008820763581806329</v>
+      </c>
+    </row>
+    <row r="13" spans="1:20">
+      <c r="A13" t="s">
+        <v>22</v>
+      </c>
+      <c r="B13" t="s">
+        <v>23</v>
+      </c>
+      <c r="C13" t="s">
+        <v>24</v>
+      </c>
+      <c r="D13" t="s">
+        <v>20</v>
+      </c>
+      <c r="E13">
+        <v>2</v>
+      </c>
+      <c r="F13">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G13">
+        <v>0.10351</v>
+      </c>
+      <c r="H13">
+        <v>0.31053</v>
+      </c>
+      <c r="I13">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J13">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K13">
+        <v>3</v>
+      </c>
+      <c r="L13">
+        <v>1</v>
+      </c>
+      <c r="M13">
+        <v>1.153086</v>
+      </c>
+      <c r="N13">
+        <v>3.459258</v>
+      </c>
+      <c r="O13">
+        <v>0.5592240185534072</v>
+      </c>
+      <c r="P13">
+        <v>0.5592240185534072</v>
+      </c>
+      <c r="Q13">
+        <v>0.11935593186</v>
+      </c>
+      <c r="R13">
+        <v>1.07420338674</v>
+      </c>
+      <c r="S13">
+        <v>0.2235865011612067</v>
+      </c>
+      <c r="T13">
+        <v>0.2235865011612067</v>
+      </c>
+    </row>
+    <row r="14" spans="1:20">
+      <c r="A14" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" t="s">
+        <v>23</v>
+      </c>
+      <c r="C14" t="s">
+        <v>24</v>
+      </c>
+      <c r="D14" t="s">
+        <v>21</v>
+      </c>
+      <c r="E14">
+        <v>2</v>
+      </c>
+      <c r="F14">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G14">
+        <v>0.10351</v>
+      </c>
+      <c r="H14">
+        <v>0.31053</v>
+      </c>
+      <c r="I14">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J14">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K14">
+        <v>1</v>
+      </c>
+      <c r="L14">
+        <v>0.3333333333333333</v>
+      </c>
+      <c r="M14">
+        <v>0.0003523333333333334</v>
+      </c>
+      <c r="N14">
+        <v>0.001057</v>
+      </c>
+      <c r="O14">
+        <v>0.0001708747331395783</v>
+      </c>
+      <c r="P14">
+        <v>0.0001708747331395783</v>
+      </c>
+      <c r="Q14">
+        <v>3.647002333333333E-05</v>
+      </c>
+      <c r="R14">
+        <v>0.00032823021</v>
+      </c>
+      <c r="S14">
+        <v>6.831838843110155E-05</v>
+      </c>
+      <c r="T14">
+        <v>6.831838843110155E-05</v>
+      </c>
+    </row>
+    <row r="15" spans="1:20">
+      <c r="A15" t="s">
+        <v>22</v>
+      </c>
+      <c r="B15" t="s">
+        <v>23</v>
+      </c>
+      <c r="C15" t="s">
+        <v>24</v>
+      </c>
+      <c r="D15" t="s">
+        <v>22</v>
+      </c>
+      <c r="E15">
+        <v>2</v>
+      </c>
+      <c r="F15">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G15">
+        <v>0.10351</v>
+      </c>
+      <c r="H15">
+        <v>0.31053</v>
+      </c>
+      <c r="I15">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J15">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>1</v>
+      </c>
+      <c r="M15">
+        <v>0.8315963333333333</v>
+      </c>
+      <c r="N15">
+        <v>2.494789</v>
+      </c>
+      <c r="O15">
+        <v>0.4033078567781981</v>
+      </c>
+      <c r="P15">
+        <v>0.4033078567781981</v>
+      </c>
+      <c r="Q15">
+        <v>0.08607853646333331</v>
+      </c>
+      <c r="R15">
+        <v>0.7747068281699999</v>
+      </c>
+      <c r="S15">
+        <v>0.1612487833071329</v>
+      </c>
+      <c r="T15">
+        <v>0.1612487833071328</v>
+      </c>
+    </row>
+    <row r="16" spans="1:20">
+      <c r="A16" t="s">
+        <v>22</v>
+      </c>
+      <c r="B16" t="s">
+        <v>23</v>
+      </c>
+      <c r="C16" t="s">
+        <v>24</v>
+      </c>
+      <c r="D16" t="s">
+        <v>26</v>
+      </c>
+      <c r="E16">
+        <v>2</v>
+      </c>
+      <c r="F16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="G16">
+        <v>0.10351</v>
+      </c>
+      <c r="H16">
+        <v>0.31053</v>
+      </c>
+      <c r="I16">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="J16">
+        <v>0.3998156261949856</v>
+      </c>
+      <c r="K16">
+        <v>2</v>
+      </c>
+      <c r="L16">
+        <v>0.6666666666666666</v>
+      </c>
+      <c r="M16">
+        <v>0.031414</v>
+      </c>
+      <c r="N16">
+        <v>0.09424199999999999</v>
+      </c>
+      <c r="O16">
+        <v>0.01523517180751196</v>
+      </c>
+      <c r="P16">
+        <v>0.01523517180751196</v>
+      </c>
+      <c r="Q16">
+        <v>0.00325166314</v>
+      </c>
+      <c r="R16">
+        <v>0.02926496826</v>
+      </c>
+      <c r="S16">
+        <v>0.006091259756408583</v>
+      </c>
+      <c r="T16">
+        <v>0.006091259756408582</v>
       </c>
     </row>
   </sheetData>
